--- a/Bloom and SOLO Verbs.xlsx
+++ b/Bloom and SOLO Verbs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\2023\ENG4701\Course_Design_For_Accreditation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musth\OneDrive\Desktop\FIT4701\Course_Design_For_Accreditation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5302140D-EB84-43D0-BA16-DB5C71567E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C09346-E187-4133-BC0D-7091D18042C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="915" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloom Cognitive Monash" sheetId="1" r:id="rId1"/>
@@ -1721,8 +1721,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1735,22 +1735,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,34 +1756,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2010,9 +1991,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2052,7 +2033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2072,7 +2053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -2152,7 +2133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -2172,7 +2153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2192,7 +2173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -2212,7 +2193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -2232,7 +2213,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2252,7 +2233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -2286,265 +2267,265 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="9" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="12" t="s">
+    <row r="19" spans="2:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="12" t="s">
+    <row r="20" spans="2:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="28" t="s">
+    <row r="21" spans="2:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="12" t="s">
+    <row r="22" spans="2:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="12" t="s">
+    <row r="23" spans="2:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="12" t="s">
+    <row r="24" spans="2:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="12" t="s">
+    <row r="25" spans="2:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
         <v>485</v>
       </c>
     </row>
@@ -2562,124 +2543,124 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="29" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="C6" s="29" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="29" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="29" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="29" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="26" t="s">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="29"/>
+    <row r="22" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2693,93 +2674,95 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="D6" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="12" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="29"/>
+    <row r="22" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2795,9 +2778,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2817,286 +2800,286 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="8:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
+    <row r="17" spans="8:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3115,9 +3098,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3136,506 +3119,506 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
+    <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
+    <row r="37" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+    <row r="41" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="14" t="s">
+    <row r="42" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
+    <row r="45" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="14" t="s">
+    <row r="46" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
+    <row r="47" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3653,9 +3636,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3677,352 +3660,352 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>162</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>165</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>168</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>172</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>175</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="F18" s="9"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4041,351 +4024,351 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="20" t="s">
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="20" t="s">
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="20" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="20" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="20" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="20" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4401,325 +4384,325 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C14" s="14" t="s">
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C15" s="14" t="s">
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C16" s="14" t="s">
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C17" s="14" t="s">
+    <row r="17" spans="3:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C18" s="14" t="s">
+    <row r="18" spans="3:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="3:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="10" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4739,349 +4722,349 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5099,514 +5082,514 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="10" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C35" s="14" t="s">
+    <row r="35" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E36" s="14" t="s">
+    <row r="36" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="E36" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E37" s="14" t="s">
+    <row r="37" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="E37" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E38" s="14" t="s">
+    <row r="38" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="E38" s="10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5624,266 +5607,266 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="13" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="13" t="s">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="13" t="s">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="13" t="s">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="13" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="13" t="s">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="13" t="s">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="13" t="s">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="13" t="s">
+    <row r="17" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="13" t="s">
+    <row r="18" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="13" t="s">
+    <row r="19" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="13" t="s">
+    <row r="20" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="13" t="s">
+    <row r="21" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="13" t="s">
+    <row r="22" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="13" t="s">
+    <row r="23" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D24" s="13" t="s">
+    <row r="24" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D25" s="13" t="s">
+    <row r="25" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="13" t="s">
+    <row r="26" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D27" s="27" t="s">
+    <row r="27" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="13" t="s">
+    <row r="28" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="13" t="s">
+    <row r="29" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="13" t="s">
+    <row r="30" spans="4:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
         <v>453</v>
       </c>
     </row>
